--- a/nop-biz/src/test/resources/_vfs/nop/test/imp/template3.test.xlsx
+++ b/nop-biz/src/test/resources/_vfs/nop/test/imp/template3.test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-biz\src\test\resources\_vfs\nop\test\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E549A562-7BF8-4057-B5C8-D0A6FD4281AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A41FF-550C-48F8-A709-093EFEFB79A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
+    <sheet name="XptWorkbookModel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>L0指标</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,6 +70,22 @@
   </si>
   <si>
     <t>X年指标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -76,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +123,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +150,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -392,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,6 +470,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -716,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -858,4 +902,56 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09B2254-F693-4135-A5FC-B64FC0CA071C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.4140625" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="26">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/nop-biz/src/test/resources/_vfs/nop/test/imp/template3.test.xlsx
+++ b/nop-biz/src/test/resources/_vfs/nop/test/imp/template3.test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-biz\src\test\resources\_vfs\nop\test\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A41FF-550C-48F8-A709-093EFEFB79A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171A6E5D-57F7-4FB3-8FFC-48715C56952F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>L0指标</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>red</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +166,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -428,13 +438,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -455,6 +464,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,14 +484,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -760,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -775,124 +788,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="27">
+        <v>333</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>2</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>3</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -906,10 +921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09B2254-F693-4135-A5FC-B64FC0CA071C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -919,32 +934,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="19">
         <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="26">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
